--- a/3_Semestre/AlgebraLinear/AtividadeSolverJoaoSassi.xlsx
+++ b/3_Semestre/AlgebraLinear/AtividadeSolverJoaoSassi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lab5\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lab5\Desktop\Fatec\3_Semestre\AlgebraLinear\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14550" windowHeight="7755" tabRatio="797"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" tabRatio="837" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="EX 1 - Custo" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="solver_adj" localSheetId="10" hidden="1">'EX 11 - Polímeros'!$D$13:$H$16</definedName>
     <definedName name="solver_adj" localSheetId="11" hidden="1">'EX 12 - Autopeças II'!$D$12:$F$14</definedName>
     <definedName name="solver_adj" localSheetId="12" hidden="1">'EX 13 - Confetes'!$D$12:$G$14</definedName>
-    <definedName name="solver_adj" localSheetId="13" hidden="1">'EX 14 - Máquinas II'!$D$23:$G$26</definedName>
+    <definedName name="solver_adj" localSheetId="13" hidden="1">'EX 14 - Máquinas II'!$D$13:$G$16</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'EX 2 - Custo'!$D$13:$G$16</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'EX 3 - Custo'!$D$13:$G$16</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'EX 4 - Bicicletas'!$D$12:$G$14</definedName>
@@ -41,7 +41,7 @@
     <definedName name="solver_adj" localSheetId="5" hidden="1">'EX 6 - Criança Renascer'!$D$14:$K$18</definedName>
     <definedName name="solver_adj" localSheetId="6" hidden="1">'EX 7 - Energia'!$D$12:$G$14</definedName>
     <definedName name="solver_adj" localSheetId="7" hidden="1">'EX 8 - Vinicola'!$D$12:$G$14</definedName>
-    <definedName name="solver_adj" localSheetId="8" hidden="1">'EX 9 - Máquinas'!$D$23:$H$26</definedName>
+    <definedName name="solver_adj" localSheetId="8" hidden="1">'EX 9 - Máquinas'!$D$13:$H$16</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="9" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="10" hidden="1">0.0001</definedName>
@@ -117,7 +117,7 @@
     <definedName name="solver_lhs1" localSheetId="10" hidden="1">'EX 11 - Polímeros'!$D$13:$H$16</definedName>
     <definedName name="solver_lhs1" localSheetId="11" hidden="1">'EX 12 - Autopeças II'!$D$15:$F$15</definedName>
     <definedName name="solver_lhs1" localSheetId="12" hidden="1">'EX 13 - Confetes'!$D$15:$G$15</definedName>
-    <definedName name="solver_lhs1" localSheetId="13" hidden="1">'EX 14 - Máquinas II'!$D$27:$G$27</definedName>
+    <definedName name="solver_lhs1" localSheetId="13" hidden="1">'EX 14 - Máquinas II'!$D$17:$G$17</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'EX 2 - Custo'!$D$17:$G$17</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'EX 3 - Custo'!$D$17:$G$17</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'EX 4 - Bicicletas'!$D$15:$G$15</definedName>
@@ -125,13 +125,13 @@
     <definedName name="solver_lhs1" localSheetId="5" hidden="1">'EX 6 - Criança Renascer'!$D$19:$K$19</definedName>
     <definedName name="solver_lhs1" localSheetId="6" hidden="1">'EX 7 - Energia'!$D$15:$G$15</definedName>
     <definedName name="solver_lhs1" localSheetId="7" hidden="1">'EX 8 - Vinicola'!$D$15:$G$15</definedName>
-    <definedName name="solver_lhs1" localSheetId="8" hidden="1">'EX 9 - Máquinas'!$D$27:$H$27</definedName>
+    <definedName name="solver_lhs1" localSheetId="8" hidden="1">'EX 9 - Máquinas'!$D$17:$H$17</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'EX 1 - Custo'!$G$12:$G$14</definedName>
     <definedName name="solver_lhs2" localSheetId="9" hidden="1">'EX 10 - Autopeças'!$D$15:$F$15</definedName>
     <definedName name="solver_lhs2" localSheetId="10" hidden="1">'EX 11 - Polímeros'!$D$17:$H$17</definedName>
     <definedName name="solver_lhs2" localSheetId="11" hidden="1">'EX 12 - Autopeças II'!$G$12:$G$14</definedName>
     <definedName name="solver_lhs2" localSheetId="12" hidden="1">'EX 13 - Confetes'!$H$12:$H$14</definedName>
-    <definedName name="solver_lhs2" localSheetId="13" hidden="1">'EX 14 - Máquinas II'!$H$23:$H$26</definedName>
+    <definedName name="solver_lhs2" localSheetId="13" hidden="1">'EX 14 - Máquinas II'!$H$13:$H$16</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'EX 2 - Custo'!$H$13:$H$16</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">'EX 3 - Custo'!$H$13:$H$16</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">'EX 4 - Bicicletas'!$H$12:$H$14</definedName>
@@ -139,7 +139,7 @@
     <definedName name="solver_lhs2" localSheetId="5" hidden="1">'EX 6 - Criança Renascer'!$L$14:$L$18</definedName>
     <definedName name="solver_lhs2" localSheetId="6" hidden="1">'EX 7 - Energia'!$H$12:$H$14</definedName>
     <definedName name="solver_lhs2" localSheetId="7" hidden="1">'EX 8 - Vinicola'!$H$12:$H$14</definedName>
-    <definedName name="solver_lhs2" localSheetId="8" hidden="1">'EX 9 - Máquinas'!$I$23:$I$26</definedName>
+    <definedName name="solver_lhs2" localSheetId="8" hidden="1">'EX 9 - Máquinas'!$I$13:$I$16</definedName>
     <definedName name="solver_lhs3" localSheetId="9" hidden="1">'EX 10 - Autopeças'!$G$12:$G$14</definedName>
     <definedName name="solver_lhs3" localSheetId="10" hidden="1">'EX 11 - Polímeros'!$I$13:$I$16</definedName>
     <definedName name="solver_lhs3" localSheetId="4" hidden="1">'EX 5 - Miss Daisy'!$J$11:$J$12</definedName>
@@ -261,7 +261,7 @@
     <definedName name="solver_opt" localSheetId="10" hidden="1">'EX 11 - Polímeros'!$K$4</definedName>
     <definedName name="solver_opt" localSheetId="11" hidden="1">'EX 12 - Autopeças II'!$I$4</definedName>
     <definedName name="solver_opt" localSheetId="12" hidden="1">'EX 13 - Confetes'!$J$4</definedName>
-    <definedName name="solver_opt" localSheetId="13" hidden="1">'EX 14 - Máquinas II'!$L$23</definedName>
+    <definedName name="solver_opt" localSheetId="13" hidden="1">'EX 14 - Máquinas II'!$L$13</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'EX 2 - Custo'!$J$4</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'EX 3 - Custo'!$J$4</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'EX 4 - Bicicletas'!$J$4</definedName>
@@ -269,7 +269,7 @@
     <definedName name="solver_opt" localSheetId="5" hidden="1">'EX 6 - Criança Renascer'!$N$4</definedName>
     <definedName name="solver_opt" localSheetId="6" hidden="1">'EX 7 - Energia'!$J$4</definedName>
     <definedName name="solver_opt" localSheetId="7" hidden="1">'EX 8 - Vinicola'!$J$4</definedName>
-    <definedName name="solver_opt" localSheetId="8" hidden="1">'EX 9 - Máquinas'!$M$23</definedName>
+    <definedName name="solver_opt" localSheetId="8" hidden="1">'EX 9 - Máquinas'!$M$4</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="9" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="10" hidden="1">0.000001</definedName>
@@ -303,7 +303,7 @@
     <definedName name="solver_rel1" localSheetId="10" hidden="1">4</definedName>
     <definedName name="solver_rel1" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="12" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="13" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
@@ -311,7 +311,7 @@
     <definedName name="solver_rel1" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="7" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="10" hidden="1">2</definedName>
@@ -325,7 +325,7 @@
     <definedName name="solver_rel2" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="7" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="4" hidden="1">2</definedName>
@@ -335,7 +335,7 @@
     <definedName name="solver_rhs1" localSheetId="10" hidden="1">"número inteiro"</definedName>
     <definedName name="solver_rhs1" localSheetId="11" hidden="1">'EX 12 - Autopeças II'!$D$17:$F$17</definedName>
     <definedName name="solver_rhs1" localSheetId="12" hidden="1">'EX 13 - Confetes'!$D$17:$G$17</definedName>
-    <definedName name="solver_rhs1" localSheetId="13" hidden="1">'EX 14 - Máquinas II'!$D$29:$G$29</definedName>
+    <definedName name="solver_rhs1" localSheetId="13" hidden="1">'EX 14 - Máquinas II'!$D$19:$G$19</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">'EX 2 - Custo'!$D$19:$G$19</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">'EX 3 - Custo'!$D$19:$G$19</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">'EX 4 - Bicicletas'!$D$17:$G$17</definedName>
@@ -343,13 +343,13 @@
     <definedName name="solver_rhs1" localSheetId="5" hidden="1">'EX 6 - Criança Renascer'!$D$21:$K$21</definedName>
     <definedName name="solver_rhs1" localSheetId="6" hidden="1">'EX 7 - Energia'!$D$17:$G$17</definedName>
     <definedName name="solver_rhs1" localSheetId="7" hidden="1">'EX 8 - Vinicola'!$D$17:$G$17</definedName>
-    <definedName name="solver_rhs1" localSheetId="8" hidden="1">'EX 9 - Máquinas'!$D$29:$H$29</definedName>
+    <definedName name="solver_rhs1" localSheetId="8" hidden="1">'EX 9 - Máquinas'!$D$19:$H$19</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'EX 1 - Custo'!$I$12:$I$14</definedName>
     <definedName name="solver_rhs2" localSheetId="9" hidden="1">'EX 10 - Autopeças'!$D$17:$F$17</definedName>
     <definedName name="solver_rhs2" localSheetId="10" hidden="1">'EX 11 - Polímeros'!$D$19:$H$19</definedName>
     <definedName name="solver_rhs2" localSheetId="11" hidden="1">'EX 12 - Autopeças II'!$I$12:$I$14</definedName>
     <definedName name="solver_rhs2" localSheetId="12" hidden="1">'EX 13 - Confetes'!$J$12:$J$14</definedName>
-    <definedName name="solver_rhs2" localSheetId="13" hidden="1">'EX 14 - Máquinas II'!$J$23:$J$26</definedName>
+    <definedName name="solver_rhs2" localSheetId="13" hidden="1">'EX 14 - Máquinas II'!$J$13:$J$16</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">'EX 2 - Custo'!$J$13:$J$16</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">'EX 3 - Custo'!$J$13:$J$16</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">'EX 4 - Bicicletas'!$J$12:$J$14</definedName>
@@ -357,7 +357,7 @@
     <definedName name="solver_rhs2" localSheetId="5" hidden="1">'EX 6 - Criança Renascer'!$N$14:$N$18</definedName>
     <definedName name="solver_rhs2" localSheetId="6" hidden="1">'EX 7 - Energia'!$J$12:$J$14</definedName>
     <definedName name="solver_rhs2" localSheetId="7" hidden="1">'EX 8 - Vinicola'!$J$12:$J$14</definedName>
-    <definedName name="solver_rhs2" localSheetId="8" hidden="1">'EX 9 - Máquinas'!$K$23:$K$26</definedName>
+    <definedName name="solver_rhs2" localSheetId="8" hidden="1">'EX 9 - Máquinas'!$K$13:$K$16</definedName>
     <definedName name="solver_rhs3" localSheetId="9" hidden="1">'EX 10 - Autopeças'!$I$12:$I$14</definedName>
     <definedName name="solver_rhs3" localSheetId="10" hidden="1">'EX 11 - Polímeros'!$K$13:$K$16</definedName>
     <definedName name="solver_rhs3" localSheetId="4" hidden="1">'EX 5 - Miss Daisy'!$L$11:$L$12</definedName>
@@ -973,16 +973,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>8432</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>370382</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>171239</xdr:rowOff>
+      <xdr:rowOff>47414</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1005,7 +1005,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6200775" y="1152525"/>
+          <a:off x="7477125" y="1028700"/>
           <a:ext cx="8742857" cy="1685714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1071,16 +1071,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>4512</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>175962</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1103,7 +1103,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6677026" y="1343025"/>
+          <a:off x="7820026" y="1323975"/>
           <a:ext cx="6057900" cy="1328487"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1120,16 +1120,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>10300</xdr:rowOff>
+      <xdr:rowOff>775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1152,7 +1152,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7000875" y="1162050"/>
+          <a:off x="8420100" y="1152525"/>
           <a:ext cx="6353175" cy="1515250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1169,15 +1169,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>179547</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>427197</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1201,7 +1201,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6867526" y="247651"/>
+          <a:off x="9153526" y="57151"/>
           <a:ext cx="6418421" cy="1447799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1220,14 +1220,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>48501</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>181851</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1250,7 +1250,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8553450" y="971551"/>
+          <a:off x="8743950" y="723901"/>
           <a:ext cx="4533900" cy="2886950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1414,16 +1414,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28213</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171088</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1446,7 +1446,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9772650" y="1704975"/>
+          <a:off x="10601325" y="1657350"/>
           <a:ext cx="5029200" cy="2895238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1463,16 +1463,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>494750</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>190331</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>218525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9356</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1495,7 +1495,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7505700" y="1504950"/>
+          <a:off x="8448675" y="1514475"/>
           <a:ext cx="4400000" cy="1352381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1512,16 +1512,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>389913</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>142620</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266088</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1544,7 +1544,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6772275" y="1152525"/>
+          <a:off x="8077200" y="1228725"/>
           <a:ext cx="4895238" cy="2038095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1905,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,7 +2300,7 @@
   <dimension ref="C3:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:K8"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2941,7 +2941,7 @@
   <dimension ref="C3:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3198,7 +3198,7 @@
   <dimension ref="C3:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3492,8 +3492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4046,9 +4046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4562,7 +4560,7 @@
   <dimension ref="C3:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4894,7 +4892,7 @@
   <dimension ref="C3:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:L17"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5405,27 +5403,27 @@
         <v>12</v>
       </c>
       <c r="D13" s="3">
-        <f>SUM(D11:D12)</f>
+        <f t="shared" ref="D13:I13" si="1">SUM(D11:D12)</f>
         <v>1400</v>
       </c>
       <c r="E13" s="3">
-        <f>SUM(E11:E12)</f>
+        <f t="shared" si="1"/>
         <v>1060</v>
       </c>
       <c r="F13" s="3">
-        <f>SUM(F11:F12)</f>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="G13" s="3">
-        <f>SUM(G11:G12)</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="H13" s="3">
-        <f>SUM(H11:H12)</f>
+        <f t="shared" si="1"/>
         <v>870</v>
       </c>
       <c r="I13" s="3">
-        <f>SUM(I11:I12)</f>
+        <f t="shared" si="1"/>
         <v>620</v>
       </c>
     </row>
@@ -5482,9 +5480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6064,9 +6060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6357,9 +6351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6643,7 +6635,7 @@
   <dimension ref="B3:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:O29"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/3_Semestre/AlgebraLinear/AtividadeSolverJoaoSassi.xlsx
+++ b/3_Semestre/AlgebraLinear/AtividadeSolverJoaoSassi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lab5\Desktop\Fatec\3_Semestre\AlgebraLinear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\OneDrive\Área de Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B8E348-9725-4B32-8551-ACB1D3E50833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" tabRatio="837" firstSheet="4" activeTab="13"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="837" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EX 1 - Custo" sheetId="2" r:id="rId1"/>
@@ -503,7 +504,7 @@
     <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="8" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -775,7 +776,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1902,7 +1903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2296,7 +2297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="C3:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2549,7 +2550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="C3:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2937,7 +2938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="C3:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3194,7 +3195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="C3:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3489,11 +3490,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B3:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4043,10 +4044,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C3:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4225,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="3">
-        <f>SUM(D13:G13)</f>
+        <f t="shared" ref="H13:H15" si="0">SUM(D13:G13)</f>
         <v>60</v>
       </c>
       <c r="I13" s="8" t="s">
@@ -4252,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <f>SUM(D14:G14)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="I14" s="8" t="s">
@@ -4279,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <f>SUM(D15:G15)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I15" s="8" t="s">
@@ -4316,7 +4319,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
@@ -4337,7 +4340,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D18" s="8" t="s">
         <v>4</v>
       </c>
@@ -4351,7 +4354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D19" s="3">
         <v>120</v>
       </c>
@@ -4365,12 +4368,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="L21" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -4388,10 +4391,10 @@
       </c>
       <c r="L22" s="1">
         <f>SUMPRODUCT(D4:G7,D23:G26)</f>
-        <v>5630</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+        <v>5830</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
@@ -4418,7 +4421,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>10</v>
       </c>
@@ -4444,8 +4447,9 @@
       <c r="J24" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="O24" s="10"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>11</v>
       </c>
@@ -4472,7 +4476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>13</v>
       </c>
@@ -4483,14 +4487,14 @@
         <v>70</v>
       </c>
       <c r="F26" s="5">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G26" s="5">
         <v>50</v>
       </c>
       <c r="H26" s="3">
         <f>SUM(D26:G26)</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>4</v>
@@ -4499,7 +4503,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>12</v>
       </c>
@@ -4513,14 +4517,14 @@
       </c>
       <c r="F27" s="3">
         <f>SUM(F23:F26)</f>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G27" s="3">
         <f>SUM(G23:G26)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D28" s="8" t="s">
         <v>4</v>
       </c>
@@ -4534,7 +4538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D29" s="3">
         <v>120</v>
       </c>
@@ -4556,7 +4560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C3:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4888,7 +4892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C3:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5172,7 +5176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C3:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5477,7 +5481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C3:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6057,7 +6061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C3:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6348,7 +6352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="C3:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6631,7 +6635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B3:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
